--- a/data/georgia_census/mcxeta-mtianeti/tianeti/population_total.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/tianeti/population_total.xlsx
@@ -1366,13 +1366,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EA8A2F0-1A6F-4A0E-A002-7B5C76796ECB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C888BB2-1A56-447E-8B8B-5F8AF51F3698}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B101384-A9B3-434C-BF2E-522BFF13DA19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56DE838F-7E43-4843-B984-526C18821C9B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBA1218-30DD-4607-9209-45527E5DB25E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4DC4AC6-D66A-44E0-B945-F0DFA90D0B71}"/>
 </file>